--- a/ipl-2020-21-1210595/kolkata knight riders vs royal challengers bangalore 39th match 1216494/Batting1.xlsx
+++ b/ipl-2020-21-1210595/kolkata knight riders vs royal challengers bangalore 39th match 1216494/Batting1.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -402,6 +402,9 @@
       <c r="G1" t="str">
         <v>Extras</v>
       </c>
+      <c r="H1" t="str">
+        <v>Total</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
@@ -588,9 +591,14 @@
         <v>3</v>
       </c>
     </row>
+    <row r="12">
+      <c r="H12" t="str">
+        <v>84/8</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G11"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:H12"/>
   </ignoredErrors>
 </worksheet>
 </file>